--- a/precios3.xlsx
+++ b/precios3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\controlagro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7035A047-3C74-4F99-ACC6-D94C719CDF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C153C9-E470-49BD-9CCF-02C50183005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{676E1655-04D6-4518-841D-CA3DA9354C2A}"/>
   </bookViews>
@@ -47,13 +47,13 @@
     <t>Cantidad de Embragues</t>
   </si>
   <si>
-    <t>PANTALLA i6000 SIN ANTENA</t>
+    <t>PANTALLA I-6000 con EPS 15 SIN ANTENA</t>
   </si>
   <si>
-    <t>PANTALLA i6000 CON ANTENA</t>
+    <t>PANTALLA I-6000 con EPS 15 CON ANTENA</t>
   </si>
   <si>
-    <t xml:space="preserve"> SOLO SEMBRADORA</t>
+    <t>SOLO en SEMBRADORA con EPS-15</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBDA4A0-11E7-4D74-BDA7-46948E0C69CA}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
